--- a/Untitled spreadsheet.xlsx
+++ b/Untitled spreadsheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="175">
   <si>
     <t>Objective</t>
   </si>
@@ -486,6 +486,480 @@
 - Files feedback and recommendations for operational improvements.
 </t>
     </r>
+  </si>
+  <si>
+    <t>2.9.3</t>
+  </si>
+  <si>
+    <t>To provide and maintain daily operations management oversight of the Wizz Air fleet, coordinating the work of involved agencies and the Operations Control Center (OCC) personnel. The Duty Manager ensures safe, efficient, and passenger-oriented flight operations to the highest standard by applying their best knowledge and decision-making capabilitie</t>
+  </si>
+  <si>
+    <t>- Fluent in English (both written and spoken).
+- A minimum of 3 years of experience in the aviation industry.
+- Proficiency in MS Office.
+- Knowledge of AIMS (or other relevant flight operations software).
+- Demonstrated leadership, decision-making, and crisis management skills.
+- Strong adaptability and ability to work well under pressure.
+- Commitment to a Safety Management System (SMS).</t>
+  </si>
+  <si>
+    <t>1) Continuously monitor all flight operations.</t>
+  </si>
+  <si>
+    <t>2) Make tactical decisions regarding daily flight operations, including disruption and mass disruption management.</t>
+  </si>
+  <si>
+    <t>3) Take tactical decisions on behalf of the Senior Duty Manager when required.</t>
+  </si>
+  <si>
+    <t>4) Notify relevant company personnel or authorities in case of a Flight Safety Occurrence or operational disruption.</t>
+  </si>
+  <si>
+    <t>5) Activate the Crisis Management Team in case of emergencies.</t>
+  </si>
+  <si>
+    <t>7)  Manage internal and external communications related to flight operations.</t>
+  </si>
+  <si>
+    <t>8) Ensure proper shift handovers with full operational documentation.</t>
+  </si>
+  <si>
+    <t>9) Recommend process, system, and management practice improvements within the OCC.</t>
+  </si>
+  <si>
+    <t>10) Participate in regular meetings such as:
+      - Daily Ops Control meetings (chair)
+      - Biannual Operations Control Team meetings (attendee)
+      - Fortnightly team meetings (attendee)
+      - Daily Ops calls (attendee)</t>
+  </si>
+  <si>
+    <t>11) Allocate human and material resources to ensure punctuality and achievement of company KPIs.</t>
+  </si>
+  <si>
+    <t>12) Ensure safety by taking necessary actions when a flight’s safety is in doubt.</t>
+  </si>
+  <si>
+    <t>2.9.4 Junior Duty Manager</t>
+  </si>
+  <si>
+    <t>To provide and maintain daily operations management oversight of the Wizz Air fleet and to control and coordinate— in liaison with the Duty Manager on duty— the work of involved agencies and Operations Control Center (OCC) personnel. The Junior Duty Manager ensures safe, economical, and passenger-oriented flight operations at the highest standard.</t>
+  </si>
+  <si>
+    <t>- Fluent English (both written and spoken)
+- 1 or more years of experience in an aviation operations environment
+- Proficiency in MS Office
+- Knowledge of AIMS (or similar system)
+- Skills required:
+   I)   Adaptability
+   II)  Ability to work well under pressure
+   III) Decision-making skills
+   IV) Creative thinking
+    V) Attention to detail
+   VI) Commitment to a Safety Management System
+  VII) Teamwork
+  VIII) Excellent interpersonal and organizational skills</t>
+  </si>
+  <si>
+    <t>1) Continuous monitoring of all flight operations.</t>
+  </si>
+  <si>
+    <t>2) Decision-making on behalf of the Duty Manager when required.</t>
+  </si>
+  <si>
+    <t>3) Disruption management and escalation when necessary.</t>
+  </si>
+  <si>
+    <t>4) Notifying company personnel/authorities in case of flight safety occurrences or operational disruptions.</t>
+  </si>
+  <si>
+    <t>5) Alarming DM or SDM in case of emergencies.</t>
+  </si>
+  <si>
+    <t>6) Operations pre-planning and tail assignment based on maintenance requests.</t>
+  </si>
+  <si>
+    <t>7)  Monitoring the line of flight and fleet control.</t>
+  </si>
+  <si>
+    <t>8) Managing internal and external communications.</t>
+  </si>
+  <si>
+    <t>9) Sending schedules and rotation plans to airports, ground handlers, and maintenance providers.</t>
+  </si>
+  <si>
+    <t>10) Arranging ad-hoc airport slots.</t>
+  </si>
+  <si>
+    <t>11) Handling and distributing crew and ground handling agent (GHA) reports.</t>
+  </si>
+  <si>
+    <t>12) Completing the daily operations checklist.</t>
+  </si>
+  <si>
+    <t>13) Recommending improvements for OCC processes and systems.</t>
+  </si>
+  <si>
+    <t>14) Supporting the daily duties of the Duty Manager on duty.</t>
+  </si>
+  <si>
+    <t>15) Participating in:
+- Biannual Operations Control Team meetings
+- Fortnightly team meetings
+- Daily Ops calls (when on duty)</t>
+  </si>
+  <si>
+    <t>16) Allocating human and material resources to ensure schedule punctuality and company KPIs.</t>
+  </si>
+  <si>
+    <t>17) Supervising and coordinating OCC positions.</t>
+  </si>
+  <si>
+    <t>18) Preparing, modifying, and publishing tail assignments.</t>
+  </si>
+  <si>
+    <t>19) Distributing operational information to stakeholders.</t>
+  </si>
+  <si>
+    <t>2.9.5 Navigation Manager</t>
+  </si>
+  <si>
+    <t>To provide and maintain an enhanced level of navigation procedures management oversight of the Wizz Air fleet. The Navigation Manager supervises and coordinates the work of Flight Operation Officers to ensure safe, economical, and compliant operations at the highest standard.
+(source: To provide and maintain enhanced level of navigation procedures related management oversight of Wizz Air fleet and to supervise / coordinate the work of Flight Operation Officers with the best knowledge in order to obtain safe, economical operation on the highest standard.)</t>
+  </si>
+  <si>
+    <t>- Valid Flight Operation Officer Licence, Category B.
+- Fluent English (written and spoken).
+- 3 or more years of experience in the aviation industry.
+- Proficiency in MS Office.
+- Skills required:
+   I) Work well under pressure.
+  II) Decision-making skills.
+ III) Creative thinking.
+ IV) Attention to detail.
+  V) Commitment to a Safety Management System.
+ VI) Teamwork skills.</t>
+  </si>
+  <si>
+    <t>1) Prepare post-flight reports for other departments.</t>
+  </si>
+  <si>
+    <t>2) Monitor navigation-related regulations, recommendations, and update procedures if necessary.</t>
+  </si>
+  <si>
+    <t>3) Analyze the navigation-related performance of the company and prepare reports/recommendations for the Head of Operations Control.</t>
+  </si>
+  <si>
+    <t>4) Recommend improvements to navigation-related processes, systems, and management practices within OCC.</t>
+  </si>
+  <si>
+    <t>5) Develop and amend OCC procedures and maintain day-to-day OCC systems.</t>
+  </si>
+  <si>
+    <t>6) Coordinate OCC-related BCP (Business Continuity Plan) procedures.</t>
+  </si>
+  <si>
+    <t>7)  Participate in:
+ - Fortnightly Team meetings (chair).
+ - Daily Ops calls (attendee).
+ - Biannual Operations Control Team meetings (attendee).
+ - Fortnightly OCC Management meetings (attendee).</t>
+  </si>
+  <si>
+    <t>8) Have authority to:
+ - Change navigation-related processes (those not affecting flight safety).
+ - Change settings in FPS processes (those not affecting flight safety).</t>
+  </si>
+  <si>
+    <t>2.9.6 Flight Operations Officer</t>
+  </si>
+  <si>
+    <t>To provide and maintain navigation related oversight of the network by handling EUROCONTROL related messages, preparing flight documentations, providing data for the duty manager of operations. The Flight Operations Officer (FOO) supports, briefs and assists the PIC in the safe conduct of each flight.</t>
+  </si>
+  <si>
+    <t>- Valid Flight Operation Officer Licence, Category B
+- Fluent English (written and spoken) 
+- Skills section:
+   I) Work well under pressure
+  II) Teamwork skills
+ III) Demonstrated commitment to a Safety Management System
+ IV) Computer proficiency
+  V) Knowledge of MS Office</t>
+  </si>
+  <si>
+    <t>1) Report to the Duty Manager on daily operational matters.</t>
+  </si>
+  <si>
+    <t>2) Prepare and submit ATS flight plans.</t>
+  </si>
+  <si>
+    <t>3) Prepare Operational Flight Plans (OFPs).</t>
+  </si>
+  <si>
+    <t>4) Provide necessary information to crew.</t>
+  </si>
+  <si>
+    <t>5) Notify emergency services about dangerous goods during incidents.</t>
+  </si>
+  <si>
+    <t>6) Monitor flight operations and alert the Duty Manager if flight safety is in doubt.</t>
+  </si>
+  <si>
+    <t>7)  Provide information on distressed flights to appropriate authorities.</t>
+  </si>
+  <si>
+    <t>8) Carry out and monitor the daily program.</t>
+  </si>
+  <si>
+    <t>9) Handle CTOTs via CFMU-CHMI and/or NOP portal.</t>
+  </si>
+  <si>
+    <t>10) Monitor Weather/NOTAMs for updates.</t>
+  </si>
+  <si>
+    <t>11) Evaluate irregular circumstances for operational decisions (e.g., weather, airport availability).</t>
+  </si>
+  <si>
+    <t>12) Ensure alternate airports in OFPs meet landing minima and safety standards.</t>
+  </si>
+  <si>
+    <t>13) Ensure flights comply with weight limitations based on environmental conditions.</t>
+  </si>
+  <si>
+    <t>14) Liaise with staff and agents at outstations regarding navigational requirements.</t>
+  </si>
+  <si>
+    <t>15) Calculate fuel requirements according to the OM.</t>
+  </si>
+  <si>
+    <t>16) Publish data to agents at home bases and outstations.</t>
+  </si>
+  <si>
+    <t>17) Redistribute operational information internally.</t>
+  </si>
+  <si>
+    <t>18) Maintain the system database.</t>
+  </si>
+  <si>
+    <t>19) Fill in the daily electronic handover.</t>
+  </si>
+  <si>
+    <t>Participate in:
+- Biannual Operations Control Team meetings (attendee).
+- Fortnightly Team meetings (attendee).
+- Daily Ops Calls when on duty (attendee).</t>
+  </si>
+  <si>
+    <t>Have authority to:
+- Change ATS flight plan as part of flight preparation.</t>
+  </si>
+  <si>
+    <t>2.9.7 Navigator Assistant</t>
+  </si>
+  <si>
+    <t>To help the work of the Flight Operations Officer.</t>
+  </si>
+  <si>
+    <t>- Fluent English (written and spoken).
+- Proficiency in MS Office.
+- Skills required:
+   I) Adaptability.
+  II) Attention to detail.
+ III) Demonstrated commitment to a Safety Management System.
+ IV) Teamwork skills.
+  V) Excellent interpersonal and organizational skills.</t>
+  </si>
+  <si>
+    <t>1) Keep departure times up-to-date at air traffic control (ATC) side.</t>
+  </si>
+  <si>
+    <t>2) Delay flights further on ATC side based on pilot requests.</t>
+  </si>
+  <si>
+    <t>3) Distribute flight-related documentation to airports/crew in case of unexpected changes.</t>
+  </si>
+  <si>
+    <t>Participate in:
+- Biannual Operations Control Team meetings (attendee).
+- Fortnightly Team meetings (attendee).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have authority to:
+- Update flight departure times at air traffic control (ATC) side.
+</t>
+  </si>
+  <si>
+    <t>2.9.8 Senior Crew Controller</t>
+  </si>
+  <si>
+    <t>- Fluent English (written and spoken).
+- 1 or more years of experience as Crew Controller.
+- Proficiency in MS Office.
+- Knowledge of AIMS.
+- Skills required:
+   I) Work well under pressure.
+  II) Decision-making skills.
+ III) Creative thinking.
+ IV) Attention to detail.
+  V) Commitment to a Safety Management System.
+ VI) Teamwork skills.
+ VII) Excellent interpersonal and organizational skills</t>
+  </si>
+  <si>
+    <t>1) Instruct and coordinate the Crew Controller team based on operational needs.</t>
+  </si>
+  <si>
+    <t>2) Balance workload distribution between Crew Controllers during shifts.</t>
+  </si>
+  <si>
+    <t>3) Randomly check Crew Controllers’ knowledge related to FTL.</t>
+  </si>
+  <si>
+    <t>4) Report issues to the Crew Control Team Manager for further investigation.</t>
+  </si>
+  <si>
+    <t>5) Train and prepare new Crew Controller colleagues.</t>
+  </si>
+  <si>
+    <t>6) Ensure flight deck and cabin crew allocation is optimal for daily operations.</t>
+  </si>
+  <si>
+    <t>7)  Proactively plan for long-term crewing disruptions (e.g., AOGs, industrial actions).</t>
+  </si>
+  <si>
+    <t>8) Track, monitor, and modify flight deck and cabin crew rosters during operations.</t>
+  </si>
+  <si>
+    <t>9) Cooperate continuously with the Duty Manager of Operations.</t>
+  </si>
+  <si>
+    <t>10) Maintain contact with the Operations Planning Department and Crew Controllers.</t>
+  </si>
+  <si>
+    <t>11) Provide crew members in case of shortages (e.g., sickness, flight insertions, delays).</t>
+  </si>
+  <si>
+    <t>12) Notify crew members of any roster changes.</t>
+  </si>
+  <si>
+    <t>13) Monitor crew on-time check-ins for flights and other duties.</t>
+  </si>
+  <si>
+    <t>14) Cooperate daily with Regional Managers and Heads of Flight and Cabin Operations.</t>
+  </si>
+  <si>
+    <t>15) Continuously check duty and flight time limitations (daily, weekly, monthly, quarterly, yearly).</t>
+  </si>
+  <si>
+    <t>16) Fill in the daily electronic handover.</t>
+  </si>
+  <si>
+    <t>17) Perform other duties assigned by Head / Senior Manager Operations Control.</t>
+  </si>
+  <si>
+    <t>Participate in:
+- Biannual Operations Control Team meetings (attendee).
+- Fortnightly Team meetings (attendee).
+- Ops Control daily meetings (attendee).</t>
+  </si>
+  <si>
+    <t>Have authority to:
+- Modify crew rosters.</t>
+  </si>
+  <si>
+    <t>2.9.9 Crew Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Fluent English (written and spoken).
+- Proficiency in MS Office.
+- Knowledge of AIMS.
+- Skills required:
+   I) Work well under pressure.
+  II) Decision-making skills.
+ III) Creative thinking.
+ IV) Attention to detail.
+  V) Commitment to a Safety Management System.
+ VI) Teamwork skills.
+ VII) Excellent interpersonal and organizational skills.
+</t>
+  </si>
+  <si>
+    <t>2) Provide adequate flight deck and cabin crew for Wizz Air flights for the day of operation + 72 hours.</t>
+  </si>
+  <si>
+    <t>3) Monitor flight operations and escalate to Duty Manager if flight safety is in doubt.</t>
+  </si>
+  <si>
+    <t>4) Continuously monitor, track, and check crew rosters prepared by crew planners each month.</t>
+  </si>
+  <si>
+    <t>5) Ensure crew duties comply with Wizz Air FTL (OM A 7 Flight and duty time limitations).</t>
+  </si>
+  <si>
+    <t>6) Control crew check-in times for specific flights and duties.</t>
+  </si>
+  <si>
+    <t>7)  Maintain contact with Crew Planners, Head of Flight Operations, and/or Head of Cabin Operations.</t>
+  </si>
+  <si>
+    <t>8) Notify crew members in case of disruptions, cancellations, or delays.</t>
+  </si>
+  <si>
+    <t>9) Manage crew shortages on the day of operation (e.g., sickness, disruptions) by covering open crew positions</t>
+  </si>
+  <si>
+    <t>10) Provide crew in case of new flight insertions not included in the published roster.</t>
+  </si>
+  <si>
+    <t>11) Report FTL Deviations via INTELEX.</t>
+  </si>
+  <si>
+    <t>12) Fill the daily electronic handover.</t>
+  </si>
+  <si>
+    <t>13) Perform other duties assigned by Short-Term Planning and Crew Control Manager.</t>
+  </si>
+  <si>
+    <t>Have authority to:
+-Modify crew rosters.</t>
+  </si>
+  <si>
+    <t>2.9.10 Short Term Planner</t>
+  </si>
+  <si>
+    <t>To provide professional oversight and recovery of the published rosters. Ensuring roster efficiency and compliance with regulations as well as driving system and process improvements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Fluent English (written and spoken).
+- Proficiency in AIMS Crew and Ops system.
+- Knowledge of Flight Time Limitation rules.
+- Skills required:
+   I) Strong analytical and problem-solving skills.
+  II) Attention to detail.
+ III) Demonstrated commitment to a Safety Management System.
+ IV) Teamwork and strong interpersonal skills.
+</t>
+  </si>
+  <si>
+    <t>1) Recover crew schedules and line training plans after operational disruptions outside the 72-hour window.</t>
+  </si>
+  <si>
+    <t>2) Plan crew routes based on the schedule and duty rules.</t>
+  </si>
+  <si>
+    <t>3) Cover un-crewed positions beyond 72 hours.</t>
+  </si>
+  <si>
+    <t>4) Flag crew shortage issues.</t>
+  </si>
+  <si>
+    <t>5) Cooperate with other departments.</t>
+  </si>
+  <si>
+    <t>6) Follow up on schedule changes.</t>
+  </si>
+  <si>
+    <t>7)  Validate crew schedules to ensure FTL (Flight Time Limitations) and FRM (Fatigue Risk Management) compliance.</t>
   </si>
 </sst>
 </file>
@@ -746,7 +1220,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="34.0"/>
-    <col customWidth="1" min="4" max="4" width="28.88"/>
+    <col customWidth="1" min="4" max="4" width="32.75"/>
     <col customWidth="1" min="5" max="5" width="29.5"/>
   </cols>
   <sheetData>
@@ -982,6 +1456,613 @@
         <v>49</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" s="1"/>
+      <c r="E79" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="E126" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="E127" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="E128" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="E129" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="E130" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="E131" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="E132" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="E133" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="E134" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="E135" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="E136" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="E137" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="E139" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="E140" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="E141" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="E142" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="E143" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="E144" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="E145" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="E146" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Untitled spreadsheet.xlsx
+++ b/Untitled spreadsheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="266">
   <si>
     <t>Objective</t>
   </si>
@@ -961,12 +961,495 @@
   <si>
     <t>7)  Validate crew schedules to ensure FTL (Flight Time Limitations) and FRM (Fatigue Risk Management) compliance.</t>
   </si>
+  <si>
+    <t>2.9.11 Senior Manager of Duty Managers</t>
+  </si>
+  <si>
+    <t>To ensure the effective and efficient supervision and performance management of Duty Managers at Wizz Air Group, maintaining high operational standards, minimizing disruptions, and optimizing daily operations to deliver a safe, customer-focused, and cost-effective service.</t>
+  </si>
+  <si>
+    <t>1)Educational Background:
+  - University or college degree.
+2)Experience:
+  - Minimum of 3 years of experience in daily operations management.
+3)Language Skills:
+ - Fluent in English (written and spoken).
+4)Technical Knowledge:
+ - Knowledge of AIMS and proficiency in MS Office.
+5)Competencies:
+ - Leadership, teamwork, adaptability, decision-making, creative thinking, attention to detail, commitment to safety management, excellent interpersonal and organizational skills.</t>
+  </si>
+  <si>
+    <t>1) Operational Management:
+   -  Supervise and support Duty Managers in daily operations.
+   -  Interact with GO Managers, OCC Managers, and Crew Planning to minimize operational disruptions.</t>
+  </si>
+  <si>
+    <t>2) Planning &amp; Resource Allocation:
+   -  Support resource allocation and contribute to short-term and long-term operational planning.</t>
+  </si>
+  <si>
+    <t>3) Communication &amp; Reporting:
+  - Manage internal and external communications.
+  -  Analyze company performance and prepare reports/recommendations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) Process Improvement:
+  -  Recommend improvements to Duty Manager processes, systems, and practices within the OCC.
+</t>
+  </si>
+  <si>
+    <t>5) Team Performance Management:
+  -  Oversee leave management, monthly roster planning, and the performance management of the Duty Manager team.</t>
+  </si>
+  <si>
+    <t>6) Tactical Decision-Making:
+  -  Make tactical operational decisions and initiate or modify cross-functional processes when needed.</t>
+  </si>
+  <si>
+    <t>7) Meetings &amp; Collaboration:
+ -  Chair fortnightly team meetings and attend biannual Operations Control Team and OCC Management meetings.</t>
+  </si>
+  <si>
+    <t>2.9.12 Short - Term Planning and Crew Control Manager</t>
+  </si>
+  <si>
+    <t>To ensure effective management and supervision of Short-Term Planners and Crew Controllers by optimizing crew allocations, maintaining roster efficiency, mitigating crew shortages, and ensuring compliance with aviation regulations, while continuously improving Crew Control and STP processes.</t>
+  </si>
+  <si>
+    <t>1) Education:
+ -  Minimum high school diploma (university or college degree is an advantage).
+2) Experience:
+ -  At least 2 years of experience in airline crewing.
+3) Skills &amp; Competencies:
+ - Strong leadership and people management skills.
+ - Analytical and problem-solving abilities.
+ - Attention to detail.
+ - Commitment to Safety Management System (SMS).
+ - Teamwork and interpersonal skills.
+ - Proficiency in AIMS Crew and Ops system.
+ - Knowledge of Flight Time Limitation (FTL) rules.
+ - Fluent English (written and spoken).</t>
+  </si>
+  <si>
+    <t>1) Crew Allocation &amp; Shortages:
+ -  Assign and oversee flight deck and cabin crew allocations for scheduled flights.
+ -  Proactively address crew shortages pre-departure.</t>
+  </si>
+  <si>
+    <t>2) Disruption Management:
+ - Ensure recovery of crew schedules and training plans during disruptions beyond the 72-hour window..</t>
+  </si>
+  <si>
+    <t>3) Resource &amp; Risk Management:
+ -  Analyze long-term crew strategies and mitigate risks impacting daily operations.
+ -  Support resource allocation and planning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) Compliance &amp; Safety:
+ -  Validate crew schedules to comply with FTL and Fatigue Risk Management (FRM) standards.
+ - Test and evaluate new AIMS functions for crew management.
+</t>
+  </si>
+  <si>
+    <t>5) Process Improvements:
+  -  Propose and implement changes to Crew Control and STP processes in OCC.</t>
+  </si>
+  <si>
+    <t>6) Reporting &amp; Audits:
+ - Prepare reports and follow up on audits related to crew operations.
+ - Generate ad-hoc and periodic reports as required.</t>
+  </si>
+  <si>
+    <t>7) Training &amp; Development:
+  - Organize training sessions and ensure documentation is maintained.</t>
+  </si>
+  <si>
+    <t>8) Meetings &amp; Coordination:
+  -  Chair fortnightly team meetings.
+  -  Attend biannual Operations Control Team and weekly OCC Management meetings.
+  -  Collaborate cross-functionally to improve processes.</t>
+  </si>
+  <si>
+    <t>2.9.13 - Senior Manager Navigation</t>
+  </si>
+  <si>
+    <t>To provide and maintain an enhanced level of navigation procedures and management oversight to ensure safe, economical operations for Wizz Air. To coordinate with Flight Operations Officers and other departments to optimize routes, minimize navigation-related costs, and ensure compliance with navigation regulations.</t>
+  </si>
+  <si>
+    <t>1) Education &amp; Licenses:
+  -  Valid Flight Operations Officer License, Category B.
+  -  University or college degree.
+2) Experience:
+  -  Minimum 3 years of experience in the aviation industry.
+3) Skills &amp; Competencies:
+  -  Ability to work well under pressure.
+  -  Strong decision-making and creative thinking skills.
+  -  Attention to detail.
+  -  Commitment to Safety Management System (SMS).
+  -  Teamwork and interpersonal skills.
+  -  Proficiency in MS Office.
+4) Language:
+  -  Fluent English (written and spoken).</t>
+  </si>
+  <si>
+    <t>1) Navigation Oversight
+ -  Supervise and coordinate Flight Operations Officers' work.
+ -  Ensure route planning is cost- and time-efficient.</t>
+  </si>
+  <si>
+    <t>2) Monitoring &amp; Reporting:
+ -  Prepare post-flight reports for other departments.
+ -  Monitor navigation regulations and update procedures when necessary.
+ -  Analyze company navigation performance and provide reports and recommendations to the Head of Operations Control.</t>
+  </si>
+  <si>
+    <t>3) Process Improvement:
+ -  Recommend improvements to navigation-related processes and OCC systems.
+ -  Develop and amend OCC procedures and manage day-to-day systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) Authorities:
+ -  Change navigation processes (non-safety related).
+ -  Modify FPS (Flight Planning System) processes that do not affect flight safety.
+</t>
+  </si>
+  <si>
+    <t>5) Meetings:
+ -  Chair fortnightly team meetings.
+ -  Attend biannual Operations Control Team and fortnightly OCC Management meetings.</t>
+  </si>
+  <si>
+    <t>2.9.14 - Navigational Database Manager</t>
+  </si>
+  <si>
+    <t>To maintain navigation-related databases and improve the efficiency of company routes, helping to optimize fuel consumption and reduce en-route ATC charges by supporting route planning and data management.</t>
+  </si>
+  <si>
+    <t>1) Education &amp; Licenses:
+ -  University or college degree.
+ -  Valid Flight Operations Officer License, Category B.
+2) Experience:
+ -  Minimum 5 years of experience as a Flight Operations Officer.
+3) Skills &amp; Competencies:
+ -  Ability to work well under pressure.
+ -  Strong teamwork skills.
+ -  Commitment to Safety Management System (SMS).
+ -  Computer proficiency (including MS Office).
+ -  Knowledge of navigational databases and systems.</t>
+  </si>
+  <si>
+    <t>1) Database Management:
+ -  Maintain and update predefined route catalogues, alternates databases, overflight permissions, and post-flight analyses.
+ -  Conduct aeronautical data checks (e.g., AIRAC cycles) and NOTAM reviews.</t>
+  </si>
+  <si>
+    <t>2) Operational Support:
+ -  Select possible alternates before flights.
+ -  Prepare routes and fuel/cost data for new city pairs or future routes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) Collaboration:
+ -  Cooperate with departments and assist in Flight Operations Officer (FOO) training.
+ -  Act as Deputy for Senior Manager Navigation in their absence.
+ -  Assist FOOs during periods of high workload.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) Improvements &amp; Reporting:
+ -  Support continuous process improvement in route and alternate management.
+ -  Provide data input and recommendations for navigation-related decisions.
+</t>
+  </si>
+  <si>
+    <t>5) Meetings:
+ -  Attend biannual Operations Control Team meetings.
+ -  Attend fortnightly team meetings and OCC Management meetings.</t>
+  </si>
+  <si>
+    <t>6) Authorities:
+ -  Modify airport, route, and alternate settings in FPS (Flight Planning System).</t>
+  </si>
+  <si>
+    <t>2.9.15 - Operations Control Development Manager</t>
+  </si>
+  <si>
+    <t>To develop and optimize processes, resource areas, and systems within Operations Control in collaboration with Operations Leadership. The role focuses on improving efficiency, scalability, and sustainability of the Operations Control organization, aligned with Wizz Air’s strategic goals.</t>
+  </si>
+  <si>
+    <t>1) Education &amp; Experience:
+ -  University or college degree.
+ -  Minimum 3 years of experience in Operations Control.
+2) Skills &amp; Competencies:
+ -  Leadership and adaptability.
+ -  Strong decision-making and creative thinking skills.
+ -  Excellent attention to detail.
+ -  Teamwork and interpersonal skills.
+ -  Organizational and project management abilities.
+ -  Proficiency in MS Office and AIMS.
+3) Language:
+ -  Fluent English (written and spoken).</t>
+  </si>
+  <si>
+    <t>1) Operational Oversight:
+ -  Monitor company’s operations performance and KPIs.
+ -  Prepare reports and recommendations to enhance operational forecasting and oversight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Training &amp; Development:
+ -  Develop and provide training materials for Operations Control personnel.
+ -  Contribute to succession planning and staff development.
+</t>
+  </si>
+  <si>
+    <t>3) Resource &amp; Workforce Planning:
+ -  Manage human resource planning for Operations Control.
+ -  Maintain oversight structure for outsourced OCC activities.</t>
+  </si>
+  <si>
+    <t>4) Process &amp; Systems Improvement:
+ -  Recommend and implement process improvements across OCC functions.
+ -  Develop decision-making matrices to support disruption management.
+ -  Collaborate with Ground Ops and Crew Planning to optimize disruption processes.</t>
+  </si>
+  <si>
+    <t>5) Strategic Planning:
+ -  Assist in mid-term and long-term OCC strategy development.
+ -  Represent Operations Control in cross-functional projects when required.</t>
+  </si>
+  <si>
+    <t>6) Authorities:
+ -  Create and modify departmental processes.
+ -  Recommend and implement cross-functional process changes.
+ -  Create and modify training materials.</t>
+  </si>
+  <si>
+    <t>7) Meetings:
+ -  Attend fortnightly OCC Management meetings.</t>
+  </si>
+  <si>
+    <t>2.9.16 - Operations Control Policy and Standards Manager</t>
+  </si>
+  <si>
+    <t>To ensure standardization and compliance of all Operations Control (OCC) policies, procedures, and processes for Wizz Air Group, with a strong focus on safety, regulatory requirements, and continuous improvement.</t>
+  </si>
+  <si>
+    <t>1) Education &amp; Experience:
+ -  University or college degree.
+ -  Minimum 3 years of experience in operations environment.
+2) Skills &amp; Competencies:
+ -  Adaptability and attention to detail.
+ -  Commitment to Safety Management System (SMS).
+ -  Strong teamwork and communication skills.
+ -  Excellent interpersonal and organizational skills.
+ -  Proficiency in MS Office.
+3) Language:
+ -  Fluent English (written and spoken).</t>
+  </si>
+  <si>
+    <t>1) Policy Development &amp; Compliance:
+ -  Develop and maintain OCC policies, standards, and procedures.
+ -  Ensure compliance with regulatory requirements and industry best practices.</t>
+  </si>
+  <si>
+    <t>2) Process Improvements:
+ -  Recommend and implement improvements in OCC processes and systems.
+ -  Manage amendments to the Operations Control Manual and related documents.</t>
+  </si>
+  <si>
+    <t>3) Communication &amp; Training:
+ -  Keep OCC personnel informed on policy and procedural updates.
+ -  Act as OCC Training Manager and promote safety awareness within OCC.</t>
+  </si>
+  <si>
+    <t>4) Coordination:
+ -  Liaise with Safety &amp; Compliance department to ensure safety information is incorporated into procedures.
+ -  Represent OCC in external/internal audits and S&amp;C meetings.
+ -  Collaborate with peer functions on subcontracted activities and process inspections.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) Meetings:
+ -  Attend biannual Operations Control Team meetings, fortnightly team and OCC Management meetings, Regulation Tracking meetings, and OCC policy council.
+</t>
+  </si>
+  <si>
+    <t>6) Authorities:
+ -  Create and modify departmental processes.
+ -  Recommend and initiate cross-functional process changes.
+ -  Lead internal/external OCC communications regarding policy and standards.</t>
+  </si>
+  <si>
+    <t>2.9.17 - Capacity Planning and Resource Junior Manager</t>
+  </si>
+  <si>
+    <t>To support the growth and development of the Operations Control Center (OCC) by managing resource planning, forward forecasting, recruitment, onboarding, and training management, while contributing to efficient OCC crew rostering and continuous improvement.</t>
+  </si>
+  <si>
+    <t>1) Education &amp; Experience:
+ -  University or college degree.
+ -  Minimum 3 years of operational experience in an airline environment.
+2) Skills &amp; Competencies:
+ -  Attention to detail.
+ -  Advanced computer skills.
+ -  Self-motivation.
+3) Language:
+ -  Fluent English (written and spoken).</t>
+  </si>
+  <si>
+    <t>1) Resource Planning &amp; Rostering:
+ -  Support OCC resource planning and forward forecasting based on company growth.
+ -  Prepare monthly OCC rosters, considering seasonal flying patterns and multi-AOC (Air Operator Certificate) complexity.
+ -  Ensure timely hiring and efficient onboarding of new OCC staff (including WAPA Cadets into Crew Control programs).</t>
+  </si>
+  <si>
+    <t>2) Training &amp; Development:
+ -  Lead and manage OCC training programs and syllabi in collaboration with Team Managers.
+ -  Maintain OCC personnel training records to meet regulatory compliance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) Continuous Improvement:
+ -  Monitor trends and hazards via reports and incorporate lessons learned into OCC training.
+ -  Prepare and propose resource development recommendations during OCC meetings.
+</t>
+  </si>
+  <si>
+    <t>4) Communication &amp; Project Management:
+ -  Ensure effective communication with cross-functional teams.
+ -  Manage OCC-related projects and handle reporting on training validity and expirations.</t>
+  </si>
+  <si>
+    <t>5) Meetings:
+ -  Attend biannual Operations Control Team meetings and fortnightly OCC Management meetings.</t>
+  </si>
+  <si>
+    <t>6)Authorities:
+ -  Access OCC personnel training records.
+ -  Access and manage OCC Training Manual.
+ -  Admin rights for OCC group in the training management system.</t>
+  </si>
+  <si>
+    <t>2.9.18 - Short-Term Planning and Crew Control Training Junior Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To support the development and training of crew control and short-term planning teams by facilitating compliance with Flight Time Limitations (FTL) and assisting with audits and team performance improvement.
+</t>
+  </si>
+  <si>
+    <t>1) Education &amp; Experience:
+ -  Minimum high school degree (university or college degree is an advantage).
+ -  Minimum 2 years of experience in a training role.
+2) Skills &amp; Competencies:
+ -  Proficiency in Microsoft Office suite.
+ -  Basic understanding of Flight Time Limitation regulations.
+ -  Familiarity with AIMS system.
+ -  Fluent English (C1 level or higher).</t>
+  </si>
+  <si>
+    <t>1) Training &amp; Development:
+ -  Conduct training sessions for crew control and short-term planning teams.
+ -  Assist in creating and reviewing training materials.</t>
+  </si>
+  <si>
+    <t>2) Compliance Monitoring:
+ -  Participate in inspections to ensure FTL compliance.
+ -  Support the implementation of necessary changes based on audit findings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) Audit Preparation &amp; Report Support:
+ -  Assist in audit preparation and post-audit follow-ups.
+ -  Help investigate operational reports and propose improvements.
+</t>
+  </si>
+  <si>
+    <t>4) Project Participation:
+ -  Support team performance by contributing to assigned projects related to compliance and efficiency improvements.</t>
+  </si>
+  <si>
+    <t>6)Authorities:
+ -  Conduct relevant trainings.
+ -  Develop training materials.
+ -  Support audits and follow-up actions.</t>
+  </si>
+  <si>
+    <t>2.12 - Computer systems</t>
+  </si>
+  <si>
+    <t>Ensure that the FPS database is consistent with AIRAC data and that any discrepancies are properly reported to the relevant service providers.
+Source: Operations Control Manual (OCM), Chapter 2.12.2.1 - "Flight Planning System data check"</t>
+  </si>
+  <si>
+    <t>- The service provider has uploaded the data into the FPS system.
+- The NDBM has access to the AIRAC database and FPS system.
+- EUROCONTROL website is available for data comparison.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) The NDBM downloads the AIRAC database and FPS data.
+</t>
+  </si>
+  <si>
+    <t>2) The NDBM compares the two databases.</t>
+  </si>
+  <si>
+    <t>3) If discrepancies are found, the NDBM records them and forwards them to the relevant providers (EUROCONTROL/FPS provider).</t>
+  </si>
+  <si>
+    <t>4) The NDBM documents the outcome of the verification process in the designated folder: S:\OCC\Common\navig\AIRAC-planned changes\YEARMONTH\AIRAC NUMBER</t>
+  </si>
+  <si>
+    <t>2.13. - Confidential Safety Reporting Process</t>
+  </si>
+  <si>
+    <t>Verify that the Confidential Safety Reporting Program operates according to Wizz Air’s non-punitive reporting policy, allowing OCC staff and other relevant personnel to report safety-related incidents in a secure and confidential manner.
+Source: Operations Control Manual (OCM), Chapter 2.13.1 – "Confidential Safety Reporting Program"</t>
+  </si>
+  <si>
+    <t>- The OCC staff is trained on how to access and use the INTELLEX Confidential Reporting system.
+- The INTELLEX platform is operational and accessible via the provided URL.
+- OCC staff or other relevant personnel are aware of the reporting policy and guidelines (non-punitive approach).</t>
+  </si>
+  <si>
+    <t>1) OCC staff identifies a safety-related event or unsafe practice (e.g., crew activity, Wizz Air Operations activity, ground handling issue).</t>
+  </si>
+  <si>
+    <t>Expected Result:
+- The report is successfully submitted and logged in the system.
+- The Safety Department receives the report.
+- The process remains fully anonymous and secure as described.
+- The system adheres to Wizz Air’s Confidential Reporting policy, with no punitive action taken unless gross negligence or willful misconduct is later confirmed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">2) The staff member accesses the INTELLEX link provided:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://eu.intelex.com/Login/WizzAir/PublicForm/PublicView/Create/Confidential_Report</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3) The staff completes the Confidential Report form anonymously (with optional personal details if desired).
+</t>
+  </si>
+  <si>
+    <t>4) Submit the report via the system.</t>
+  </si>
+  <si>
+    <t>5) Validate that the report is received only by the dedicated Safety Department and that it is logged for follow-up.</t>
+  </si>
+  <si>
+    <t>6) Ensure that the reporting user receives a confirmation (if applicable) and that no disciplinary action is triggered as a result of the report, following the non-punitive approach.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -978,6 +1461,10 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -987,13 +1474,23 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border/>
+    <border>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1001,6 +1498,17 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1219,6 +1727,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="31.38"/>
     <col customWidth="1" min="3" max="3" width="34.0"/>
     <col customWidth="1" min="4" max="4" width="32.75"/>
     <col customWidth="1" min="5" max="5" width="29.5"/>
@@ -2059,11 +2568,420 @@
       </c>
     </row>
     <row r="146">
-      <c r="E146" s="1" t="s">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="4" t="s">
         <v>164</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="D148" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="D149" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="D150" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="D151" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="D152" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="D153" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="D155" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="D156" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="D157" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="D158" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="D159" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="D160" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="D161" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="D163" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="D164" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="D165" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="D166" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="D168" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="D169" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="D170" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="D171" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="D172" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="D174" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="D175" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="D176" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="D177" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="D178" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="D179" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="D181" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="D182" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="D183" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="D184" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="D185" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="D187" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="D188" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="D189" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="D190" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="D191" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="D193" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="D194" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="D195" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="D196" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E197" s="5"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="D199" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="D200" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="D201" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="D203" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="D204" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="D205" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="D206" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="D207" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D203"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>